--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/USA.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/USA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>11.56772708892822</v>
+        <v>13.02412986755371</v>
       </c>
       <c r="C2" t="n">
-        <v>10.98267936706543</v>
+        <v>12.82521057128906</v>
       </c>
       <c r="D2" t="n">
-        <v>12.15277481079102</v>
+        <v>13.22304916381836</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>11.96657752990723</v>
+        <v>12.87300395965576</v>
       </c>
       <c r="C3" t="n">
-        <v>11.24811172485352</v>
+        <v>12.77571773529053</v>
       </c>
       <c r="D3" t="n">
-        <v>12.68504333496094</v>
+        <v>12.970290184021</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>11.96013164520264</v>
+        <v>12.67834377288818</v>
       </c>
       <c r="C4" t="n">
-        <v>11.39986991882324</v>
+        <v>12.63031673431396</v>
       </c>
       <c r="D4" t="n">
-        <v>12.52039337158203</v>
+        <v>12.7263708114624</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>12.03475761413574</v>
+        <v>12.4898509979248</v>
       </c>
       <c r="C5" t="n">
-        <v>11.50479507446289</v>
+        <v>12.40445613861084</v>
       </c>
       <c r="D5" t="n">
-        <v>12.56472015380859</v>
+        <v>12.57524585723877</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>12.05106449127197</v>
+        <v>12.25125694274902</v>
       </c>
       <c r="C6" t="n">
-        <v>11.33931255340576</v>
+        <v>12.14215564727783</v>
       </c>
       <c r="D6" t="n">
-        <v>12.76281642913818</v>
+        <v>12.36035823822021</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>11.94300842285156</v>
+        <v>12.03027153015137</v>
       </c>
       <c r="C7" t="n">
-        <v>11.37359809875488</v>
+        <v>11.86905384063721</v>
       </c>
       <c r="D7" t="n">
-        <v>12.51241874694824</v>
+        <v>12.19148921966553</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>11.97751426696777</v>
+        <v>11.88236522674561</v>
       </c>
       <c r="C8" t="n">
-        <v>11.28210830688477</v>
+        <v>11.78677463531494</v>
       </c>
       <c r="D8" t="n">
-        <v>12.67292022705078</v>
+        <v>11.97795581817627</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>12.10157775878906</v>
+        <v>11.85175800323486</v>
       </c>
       <c r="C9" t="n">
-        <v>11.39241218566895</v>
+        <v>11.82674217224121</v>
       </c>
       <c r="D9" t="n">
-        <v>12.81074333190918</v>
+        <v>11.87677383422852</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>11.96475696563721</v>
+        <v>11.8316650390625</v>
       </c>
       <c r="C10" t="n">
-        <v>11.43961620330811</v>
+        <v>11.79641342163086</v>
       </c>
       <c r="D10" t="n">
-        <v>12.48989772796631</v>
+        <v>11.86691665649414</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>11.94503211975098</v>
+        <v>11.82228851318359</v>
       </c>
       <c r="C11" t="n">
-        <v>11.13463973999023</v>
+        <v>11.78871440887451</v>
       </c>
       <c r="D11" t="n">
-        <v>12.75542449951172</v>
+        <v>11.85586261749268</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9981689453125</v>
+        <v>11.82292938232422</v>
       </c>
       <c r="C12" t="n">
-        <v>11.47972583770752</v>
+        <v>11.77872657775879</v>
       </c>
       <c r="D12" t="n">
-        <v>12.51661205291748</v>
+        <v>11.86713218688965</v>
       </c>
     </row>
     <row r="13">
@@ -617,83 +617,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>12.01575183868408</v>
+        <v>11.82552528381348</v>
       </c>
       <c r="C13" t="n">
-        <v>11.3123607635498</v>
+        <v>11.7663106918335</v>
       </c>
       <c r="D13" t="n">
-        <v>12.71914291381836</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="n">
-        <v>11.96568870544434</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11.30935096740723</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.62202644348145</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="n">
-        <v>12.0374116897583</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11.65974617004395</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.41507720947266</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="n">
-        <v>12.02104663848877</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11.35510635375977</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.68698692321777</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="n">
-        <v>12.16463947296143</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11.68943500518799</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.63984394073486</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" t="n">
-        <v>11.99915504455566</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11.59365653991699</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12.40465354919434</v>
+        <v>11.88473987579346</v>
       </c>
     </row>
   </sheetData>
@@ -739,72 +669,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>11.91765375137329</v>
+        <v>11.82320785522461</v>
       </c>
       <c r="C2" t="n">
-        <v>11.22648610259353</v>
+        <v>11.78083324432373</v>
       </c>
       <c r="D2" t="n">
-        <v>12.60882140015305</v>
+        <v>11.86558246612549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>12.03960962295532</v>
+        <v>11.80619525909424</v>
       </c>
       <c r="C3" t="n">
-        <v>11.25460536265215</v>
+        <v>11.70157432556152</v>
       </c>
       <c r="D3" t="n">
-        <v>12.8246138832585</v>
+        <v>11.91081619262695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>12.02599954605103</v>
+        <v>11.80752468109131</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5442524076914</v>
+        <v>11.72551822662354</v>
       </c>
       <c r="D4" t="n">
-        <v>12.50774668441065</v>
+        <v>11.88953113555908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>12.13738746643066</v>
+        <v>11.81118488311768</v>
       </c>
       <c r="C5" t="n">
-        <v>11.42626980970931</v>
+        <v>11.735107421875</v>
       </c>
       <c r="D5" t="n">
-        <v>12.84850512315202</v>
+        <v>11.88726234436035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>11.65959234237671</v>
+        <v>11.81036853790283</v>
       </c>
       <c r="C6" t="n">
-        <v>11.07042702775825</v>
+        <v>11.74935436248779</v>
       </c>
       <c r="D6" t="n">
-        <v>12.24875765699517</v>
+        <v>11.87138271331787</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +783,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>12.11558628082275</v>
+        <v>12.74607753753662</v>
       </c>
       <c r="C2" t="n">
-        <v>11.65589618682861</v>
+        <v>12.62213134765625</v>
       </c>
       <c r="D2" t="n">
-        <v>12.57527637481689</v>
+        <v>12.87002372741699</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +797,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>12.22849178314209</v>
+        <v>12.92465400695801</v>
       </c>
       <c r="C3" t="n">
-        <v>11.29509544372559</v>
+        <v>12.75452423095703</v>
       </c>
       <c r="D3" t="n">
-        <v>13.16188812255859</v>
+        <v>13.09478378295898</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +811,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>12.27031803131104</v>
+        <v>12.62280559539795</v>
       </c>
       <c r="C4" t="n">
-        <v>11.56164169311523</v>
+        <v>12.36959266662598</v>
       </c>
       <c r="D4" t="n">
-        <v>12.97899436950684</v>
+        <v>12.87601852416992</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +825,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>12.41388130187988</v>
+        <v>12.19579887390137</v>
       </c>
       <c r="C5" t="n">
-        <v>11.64695739746094</v>
+        <v>11.86691951751709</v>
       </c>
       <c r="D5" t="n">
-        <v>13.18080520629883</v>
+        <v>12.52467823028564</v>
       </c>
     </row>
     <row r="6">
@@ -909,13 +839,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3752908706665</v>
+        <v>11.8380069732666</v>
       </c>
       <c r="C6" t="n">
-        <v>11.23654270172119</v>
+        <v>11.53455066680908</v>
       </c>
       <c r="D6" t="n">
-        <v>13.51403903961182</v>
+        <v>12.14146327972412</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +853,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>12.26097679138184</v>
+        <v>11.60474300384521</v>
       </c>
       <c r="C7" t="n">
-        <v>11.56931781768799</v>
+        <v>11.54204559326172</v>
       </c>
       <c r="D7" t="n">
-        <v>12.95263576507568</v>
+        <v>11.66744041442871</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +867,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>12.29721450805664</v>
+        <v>11.63316631317139</v>
       </c>
       <c r="C8" t="n">
-        <v>11.55532836914062</v>
+        <v>11.48603248596191</v>
       </c>
       <c r="D8" t="n">
-        <v>13.03910064697266</v>
+        <v>11.78030014038086</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +881,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>12.52493858337402</v>
+        <v>11.74368095397949</v>
       </c>
       <c r="C9" t="n">
-        <v>12.06633472442627</v>
+        <v>11.61716556549072</v>
       </c>
       <c r="D9" t="n">
-        <v>12.98354244232178</v>
+        <v>11.87019634246826</v>
       </c>
     </row>
     <row r="10">
@@ -965,13 +895,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>12.62265014648438</v>
+        <v>11.81134796142578</v>
       </c>
       <c r="C10" t="n">
-        <v>11.81560325622559</v>
+        <v>11.71345520019531</v>
       </c>
       <c r="D10" t="n">
-        <v>13.42969703674316</v>
+        <v>11.90924072265625</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +909,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>12.60243034362793</v>
+        <v>11.9676399230957</v>
       </c>
       <c r="C11" t="n">
-        <v>11.9448823928833</v>
+        <v>11.67611980438232</v>
       </c>
       <c r="D11" t="n">
-        <v>13.25997829437256</v>
+        <v>12.25916004180908</v>
       </c>
     </row>
     <row r="12">
@@ -993,13 +923,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>12.54006576538086</v>
+        <v>12.19353008270264</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0078296661377</v>
+        <v>11.67899703979492</v>
       </c>
       <c r="D12" t="n">
-        <v>13.07230186462402</v>
+        <v>12.70806312561035</v>
       </c>
     </row>
     <row r="13">
@@ -1007,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>12.61033058166504</v>
+        <v>12.46809864044189</v>
       </c>
       <c r="C13" t="n">
-        <v>11.87220573425293</v>
+        <v>11.96918964385986</v>
       </c>
       <c r="D13" t="n">
-        <v>13.34845542907715</v>
+        <v>12.96700763702393</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +951,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>12.56650352478027</v>
+        <v>12.4877986907959</v>
       </c>
       <c r="C14" t="n">
-        <v>12.12944412231445</v>
+        <v>12.10543537139893</v>
       </c>
       <c r="D14" t="n">
-        <v>13.00356292724609</v>
+        <v>12.87016201019287</v>
       </c>
     </row>
     <row r="15">
@@ -1035,13 +965,13 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>12.62655544281006</v>
+        <v>12.32430076599121</v>
       </c>
       <c r="C15" t="n">
-        <v>12.18405437469482</v>
+        <v>11.62311553955078</v>
       </c>
       <c r="D15" t="n">
-        <v>13.06905651092529</v>
+        <v>13.02548599243164</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +979,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>12.51523399353027</v>
+        <v>12.07761001586914</v>
       </c>
       <c r="C16" t="n">
-        <v>11.61970615386963</v>
+        <v>11.29196071624756</v>
       </c>
       <c r="D16" t="n">
-        <v>13.41076183319092</v>
+        <v>12.86325931549072</v>
       </c>
     </row>
     <row r="17">
@@ -1063,13 +993,13 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>12.43790531158447</v>
+        <v>11.84601306915283</v>
       </c>
       <c r="C17" t="n">
-        <v>11.64723300933838</v>
+        <v>11.30514717102051</v>
       </c>
       <c r="D17" t="n">
-        <v>13.22857761383057</v>
+        <v>12.38687896728516</v>
       </c>
     </row>
     <row r="18">
@@ -1077,13 +1007,13 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>12.52786540985107</v>
+        <v>11.73588943481445</v>
       </c>
       <c r="C18" t="n">
-        <v>11.67950916290283</v>
+        <v>11.51664638519287</v>
       </c>
       <c r="D18" t="n">
-        <v>13.37622165679932</v>
+        <v>11.95513248443604</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1062,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>12.80833797454834</v>
+        <v>13.86967849731445</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5517095764981</v>
+        <v>13.71320520857145</v>
       </c>
       <c r="D2" t="n">
-        <v>14.06496637259858</v>
+        <v>14.02615178605745</v>
       </c>
     </row>
     <row r="3">
@@ -1146,13 +1076,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>11.84814767837524</v>
+        <v>13.43552045822144</v>
       </c>
       <c r="C3" t="n">
-        <v>11.41923691292456</v>
+        <v>13.30328403691602</v>
       </c>
       <c r="D3" t="n">
-        <v>12.27705844382593</v>
+        <v>13.56775687952685</v>
       </c>
     </row>
     <row r="4">
@@ -1160,13 +1090,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>11.99665517807007</v>
+        <v>13.02861890792847</v>
       </c>
       <c r="C4" t="n">
-        <v>11.12073414604138</v>
+        <v>12.93252241824271</v>
       </c>
       <c r="D4" t="n">
-        <v>12.87257621009876</v>
+        <v>13.12471539761422</v>
       </c>
     </row>
     <row r="5">
@@ -1174,13 +1104,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>11.00473594665527</v>
+        <v>13.01197748184204</v>
       </c>
       <c r="C5" t="n">
-        <v>9.932116227424544</v>
+        <v>12.89427265465036</v>
       </c>
       <c r="D5" t="n">
-        <v>12.077355665886</v>
+        <v>13.12968230903372</v>
       </c>
     </row>
     <row r="6">
@@ -1188,13 +1118,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>12.35829248428345</v>
+        <v>12.74179363250732</v>
       </c>
       <c r="C6" t="n">
-        <v>11.51719359334327</v>
+        <v>12.58115651278804</v>
       </c>
       <c r="D6" t="n">
-        <v>13.19939137522363</v>
+        <v>12.90243075222661</v>
       </c>
     </row>
   </sheetData>
